--- a/media/excels/cuadros.xlsx
+++ b/media/excels/cuadros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos en Ejecucion\Cantera Joven Cujae\Cantera Joven CUJAE Backend\media\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF70C457-1284-4C2B-BD0E-C4E15A044BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DF30C5-0FF7-4E9B-BF97-6586CBB84328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Nombre</t>
   </si>
@@ -492,7 +492,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,6 +615,9 @@
       <c r="D6">
         <v>89031256474</v>
       </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -629,6 +632,9 @@
       <c r="D7">
         <v>80091878977</v>
       </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -643,6 +649,9 @@
       <c r="D8">
         <v>79081872209</v>
       </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -707,6 +716,9 @@
       </c>
       <c r="D12">
         <v>78091878909</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">

--- a/media/excels/cuadros.xlsx
+++ b/media/excels/cuadros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos en Ejecucion\Cantera Joven Cujae\Cantera Joven CUJAE Backend\media\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DF30C5-0FF7-4E9B-BF97-6586CBB84328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B9C542-DAD7-4FCD-805E-B9E8B3D07DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,15 +492,16 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>

--- a/media/excels/cuadros.xlsx
+++ b/media/excels/cuadros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos en Ejecucion\Cantera Joven Cujae\Cantera Joven CUJAE Backend\media\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF70C457-1284-4C2B-BD0E-C4E15A044BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B9C542-DAD7-4FCD-805E-B9E8B3D07DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Nombre</t>
   </si>
@@ -492,15 +492,16 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -615,6 +616,9 @@
       <c r="D6">
         <v>89031256474</v>
       </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -629,6 +633,9 @@
       <c r="D7">
         <v>80091878977</v>
       </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -643,6 +650,9 @@
       <c r="D8">
         <v>79081872209</v>
       </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -707,6 +717,9 @@
       </c>
       <c r="D12">
         <v>78091878909</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">

--- a/media/excels/cuadros.xlsx
+++ b/media/excels/cuadros.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos en Ejecucion\Cantera Joven Cujae\Cantera Joven CUJAE Backend\media\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Desktop\Escuela\___Practicas 2\Proyecto\Cantera Joven CUJAE Backend\media\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B9C542-DAD7-4FCD-805E-B9E8B3D07DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Nombre</t>
   </si>
@@ -48,127 +47,85 @@
     <t>Vicerrector</t>
   </si>
   <si>
-    <t>Delgado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martha Dunia  </t>
-  </si>
-  <si>
-    <t>Dapena</t>
-  </si>
-  <si>
-    <t>Reyniel</t>
-  </si>
-  <si>
-    <t>Gómez</t>
-  </si>
-  <si>
-    <t>González</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Hernández</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anaisa </t>
-  </si>
-  <si>
-    <t>Rodríguez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adrián  </t>
-  </si>
-  <si>
-    <t>Ramos</t>
-  </si>
-  <si>
-    <t>Bolaños</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofía  </t>
-  </si>
-  <si>
-    <t>Colina</t>
-  </si>
-  <si>
-    <t>Alejandro D.</t>
-  </si>
-  <si>
-    <t>Ortega</t>
-  </si>
-  <si>
-    <t>Álvarez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odalys  </t>
-  </si>
-  <si>
-    <t>Dustet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julio César </t>
-  </si>
-  <si>
-    <t>Mendoza</t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel  </t>
-  </si>
-  <si>
-    <t>Fernández</t>
-  </si>
-  <si>
-    <t>Sanchez</t>
-  </si>
-  <si>
-    <t>Ansola</t>
-  </si>
-  <si>
-    <t>Eduardo</t>
-  </si>
-  <si>
-    <t>Oliva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deny  </t>
-  </si>
-  <si>
-    <t>Merencio</t>
-  </si>
-  <si>
-    <t>Pérez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osney  </t>
-  </si>
-  <si>
-    <t>Ones</t>
-  </si>
-  <si>
-    <t>Montejo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pablo  </t>
-  </si>
-  <si>
-    <t>Valdés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ailén  </t>
-  </si>
-  <si>
-    <t>Molinet</t>
+    <t>vicerrectora.primera</t>
+  </si>
+  <si>
+    <t>dcrh</t>
+  </si>
+  <si>
+    <t>HUMBERTO</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>PANDO</t>
+  </si>
+  <si>
+    <t>ODALYS</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>MARTA BEATRIZ</t>
+  </si>
+  <si>
+    <t>INFANTE</t>
+  </si>
+  <si>
+    <t>ABREU</t>
+  </si>
+  <si>
+    <t>RAISA</t>
+  </si>
+  <si>
+    <t>SOCORRO</t>
+  </si>
+  <si>
+    <t>LLANES</t>
+  </si>
+  <si>
+    <t>SÁNCHEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUARDO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANSOLA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENY </t>
+  </si>
+  <si>
+    <t>OLIVA</t>
+  </si>
+  <si>
+    <t>MERENCIO</t>
+  </si>
+  <si>
+    <t>MONTEJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PABLO </t>
+  </si>
+  <si>
+    <t>VALDES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,9 +163,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,25 +447,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,246 +488,153 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>99122107385</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
-        <v>80051045678</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>78091878909</v>
+      <c r="D4" s="2">
+        <v>80092607729</v>
       </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>64101002296</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
-        <v>87082315461</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" s="2">
+        <v>84052712174</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>89031256474</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2">
+        <v>72050901014</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>80091878977</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
       <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8">
-        <v>79081872209</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2">
+        <v>86011105201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9">
-        <v>90091876909</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="2">
+        <v>69102010108</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <v>92091818909</v>
+        <v>30</v>
+      </c>
+      <c r="D10" s="2">
+        <v>73051609169</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11">
-        <v>78061178907</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12">
-        <v>78091878909</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13">
-        <v>92072078910</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14">
-        <v>85111860909</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>80121855929</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/media/excels/cuadros.xlsx
+++ b/media/excels/cuadros.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Desktop\Escuela\___Practicas 2\Proyecto\Cantera Joven CUJAE Backend\media\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos en Ejecucion\Cantera Joven Cujae\Cantera Joven CUJAE Backend\media\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA97BEFF-E581-48D3-BA6A-0F57D7E5E1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Nombre</t>
   </si>
@@ -122,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000000000"/>
   </numFmts>
@@ -447,26 +448,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +491,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -507,7 +508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -521,7 +522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -538,7 +539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -555,7 +556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -572,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -589,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -602,8 +603,11 @@
       <c r="D8" s="2">
         <v>86011105201</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -620,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>

--- a/media/excels/cuadros.xlsx
+++ b/media/excels/cuadros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos en Ejecucion\Cantera Joven Cujae\Cantera Joven CUJAE Backend\media\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA97BEFF-E581-48D3-BA6A-0F57D7E5E1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFFBA1B-7AF5-40B9-AFE7-4B0764DA3158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Nombre</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>VALDES</t>
+  </si>
+  <si>
+    <t>PAVEL</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chamizo </t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
   </si>
 </sst>
 </file>
@@ -127,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +155,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -164,11 +190,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +631,7 @@
       <c r="D8" s="2">
         <v>86011105201</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -638,6 +666,40 @@
         <v>73051609169</v>
       </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2">
+        <v>99122107385</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5">
+        <v>93022006623</v>
+      </c>
+      <c r="E12" t="s">
         <v>7</v>
       </c>
     </row>
